--- a/Ergebnisse-on-edge.xlsx
+++ b/Ergebnisse-on-edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DBC930-794D-4A50-AE25-554D80545D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF644C6-2B6E-4765-A402-E1FE86077662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,11 +160,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$I$1</c:f>
+              <c:f>Ergebnisse!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>best_next_aktive_robot</c:v>
+                  <c:v>all_possible_solutions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -194,7 +194,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -503,7 +503,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$I$2:$I$101</c:f>
+              <c:f>Ergebnisse!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -514,16 +514,16 @@
                   <c:v>1.2716535433070866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0065573770491802</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0709876543209877</c:v>
+                  <c:v>1.0644171779141105</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5317460317460319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1115107913669064</c:v>
+                  <c:v>1.0655172413793104</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -553,7 +553,7 @@
                   <c:v>1.5021645021645023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4654545454545456</c:v>
+                  <c:v>1.4548736462093863</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -565,13 +565,13 @@
                   <c:v>1.118881118881119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4296577946768061</c:v>
+                  <c:v>1.3722627737226278</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.3060498220640568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2</c:v>
+                  <c:v>1.4204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.1792828685258965</c:v>
@@ -580,10 +580,10 @@
                   <c:v>1.2352941176470589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.1238532110091743</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0314960629921259</c:v>
+                  <c:v>1.0355731225296443</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.0541666666666667</c:v>
@@ -592,31 +592,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>1.541501976284585</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88047808764940239</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3457249070631969</c:v>
+                  <c:v>1.4031007751937985</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.0145772594752187</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2666666666666666</c:v>
+                  <c:v>1.2756183745583038</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5122950819672132</c:v>
+                  <c:v>1.5635593220338984</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.468</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1528384279475983</c:v>
+                  <c:v>1.168141592920354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0501567398119123</c:v>
+                  <c:v>1.3562753036437247</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.0878378378378379</c:v>
@@ -625,37 +625,37 @@
                   <c:v>1.2417218543046358</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96958174904942962</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2959183673469388</c:v>
+                  <c:v>1.4377358490566037</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.3992094861660078</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2992700729927007</c:v>
+                  <c:v>1.2945454545454544</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0940766550522647</c:v>
+                  <c:v>1.2712550607287449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1964285714285714</c:v>
+                  <c:v>1.1754385964912282</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1635687732342008</c:v>
+                  <c:v>1.071917808219178</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9826086956521739</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6503759398496241</c:v>
+                  <c:v>1.7420634920634921</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.1735159817351599</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2326388888888888</c:v>
+                  <c:v>1.3246268656716418</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -676,7 +676,7 @@
                   <c:v>1.1899224806201549</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0099009900990099</c:v>
+                  <c:v>1.006578947368421</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.0778816199376946</c:v>
@@ -685,43 +685,43 @@
                   <c:v>1.1487603305785123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2882562277580072</c:v>
+                  <c:v>1.222972972972973</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.0066006600660067</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2727272727272727</c:v>
+                  <c:v>1.3358778625954197</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5661157024793388</c:v>
+                  <c:v>1.5726141078838174</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0576271186440678</c:v>
+                  <c:v>1.118279569892473</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.5776892430278884</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0888888888888888</c:v>
+                  <c:v>1.1713147410358566</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1510791366906474</c:v>
+                  <c:v>1.2403100775193798</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3531746031746033</c:v>
+                  <c:v>1.4572649572649572</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.106761565836299</c:v>
+                  <c:v>1.1518518518518519</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2150943396226415</c:v>
+                  <c:v>1.2727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2173913043478262</c:v>
+                  <c:v>1.4054054054054055</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3869731800766283</c:v>
+                  <c:v>1.4365079365079365</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.2316176470588236</c:v>
@@ -733,64 +733,64 @@
                   <c:v>1.3248945147679325</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.94318181818181823</c:v>
+                  <c:v>1.0163265306122449</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1189591078066914</c:v>
+                  <c:v>1.1992031872509961</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.0804597701149425</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1811846689895471</c:v>
+                  <c:v>1.2463235294117647</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.0959409594095941</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2193308550185873</c:v>
+                  <c:v>1.2148148148148148</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1641221374045803</c:v>
+                  <c:v>1.2448979591836735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0501930501930501</c:v>
+                  <c:v>1.1239669421487604</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.42</c:v>
+                  <c:v>1.4143426294820718</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3639575971731448</c:v>
+                  <c:v>1.3835125448028673</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2720848056537102</c:v>
+                  <c:v>1.2903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.2638888888888888</c:v>
+                  <c:v>1.368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0408163265306123</c:v>
+                  <c:v>1.1814671814671815</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3322147651006711</c:v>
+                  <c:v>1.4280575539568345</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1447811447811447</c:v>
+                  <c:v>1.1888111888111887</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2542955326460481</c:v>
+                  <c:v>1.3468634686346863</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3125</c:v>
+                  <c:v>1.3216783216783217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1293706293706294</c:v>
+                  <c:v>1.1702898550724639</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2681159420289856</c:v>
+                  <c:v>1.2635379061371841</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.073469387755102</c:v>
+                  <c:v>1.2232558139534884</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.2578397212543555</c:v>
@@ -799,10 +799,10 @@
                   <c:v>1.4593639575971731</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0174825174825175</c:v>
+                  <c:v>1.13671875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0402930402930404</c:v>
+                  <c:v>1.109375</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1.407258064516129</c:v>
@@ -813,7 +813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C42-46B0-B3E0-FDDFA6D6216C}"/>
+              <c16:uniqueId val="{00000000-2248-4243-8D82-2B117012DDD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,11 +822,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$J$1</c:f>
+              <c:f>Ergebnisse!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>on_roboter_permutation</c:v>
+                  <c:v>best_next_aktive_robot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -856,7 +856,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1165,7 +1165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$J$2:$J$101</c:f>
+              <c:f>Ergebnisse!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1176,16 +1176,16 @@
                   <c:v>1.2716535433070866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0065573770491802</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0709876543209877</c:v>
+                  <c:v>1.0644171779141105</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1587301587301588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1115107913669064</c:v>
+                  <c:v>1.0655172413793104</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.6008583690987124</c:v>
@@ -1215,7 +1215,7 @@
                   <c:v>1.5021645021645023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0181818181818181</c:v>
+                  <c:v>1.0108303249097472</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -1227,13 +1227,13 @@
                   <c:v>1.118881118881119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3460076045627376</c:v>
+                  <c:v>1.2919708029197081</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.0782918149466192</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0620689655172413</c:v>
+                  <c:v>1.2571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.1155378486055776</c:v>
@@ -1242,10 +1242,10 @@
                   <c:v>1.1730103806228374</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.1238532110091743</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2913385826771653</c:v>
+                  <c:v>1.2964426877470356</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.45</c:v>
@@ -1254,31 +1254,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0671936758893281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1992031872509961</c:v>
+                  <c:v>1.3619909502262444</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0743494423791822</c:v>
+                  <c:v>1.1201550387596899</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.0758017492711369</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1403508771929824</c:v>
+                  <c:v>1.1484098939929328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4139344262295082</c:v>
+                  <c:v>1.4618644067796611</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>1.0132743362831858</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0532915360501567</c:v>
+                  <c:v>1.3603238866396761</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.097972972972973</c:v>
@@ -1287,37 +1287,37 @@
                   <c:v>1.0629139072847682</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0532319391634981</c:v>
+                  <c:v>1.0862745098039215</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1802721088435375</c:v>
+                  <c:v>1.3094339622641509</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.3359683794466404</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0291970802919708</c:v>
+                  <c:v>1.0254545454545454</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0940766550522647</c:v>
+                  <c:v>1.2712550607287449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.425</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1301115241635689</c:v>
+                  <c:v>1.0410958904109588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1347826086956523</c:v>
+                  <c:v>1.154867256637168</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.5150375939849625</c:v>
+                  <c:v>1.5992063492063493</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.273972602739726</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2465277777777777</c:v>
+                  <c:v>1.3395522388059702</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0532786885245902</c:v>
@@ -1338,7 +1338,7 @@
                   <c:v>1.4224806201550388</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.273927392739274</c:v>
+                  <c:v>1.2697368421052631</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.0373831775700935</c:v>
@@ -1347,43 +1347,43 @@
                   <c:v>1.1322314049586777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0533807829181494</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.04</c:v>
+                  <c:v>1.0916030534351144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5495867768595042</c:v>
+                  <c:v>1.5560165975103735</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1864406779661016</c:v>
+                  <c:v>1.2544802867383513</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.2629482071713147</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1333333333333333</c:v>
+                  <c:v>1.2191235059760956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0035971223021583</c:v>
+                  <c:v>1.0813953488372092</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5436507936507937</c:v>
+                  <c:v>1.6623931623931625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.106761565836299</c:v>
+                  <c:v>1.1518518518518519</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1849056603773584</c:v>
+                  <c:v>1.2411067193675889</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0836120401337792</c:v>
+                  <c:v>1.2509652509652509</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>1.2658730158730158</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.1102941176470589</c:v>
@@ -1395,64 +1395,64 @@
                   <c:v>1.1772151898734178</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3143939393939394</c:v>
+                  <c:v>1.416326530612245</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.4312267657992566</c:v>
+                  <c:v>1.5338645418326693</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.367816091954023</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1289198606271778</c:v>
+                  <c:v>1.1911764705882353</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1747211895910781</c:v>
+                  <c:v>1.1703703703703703</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1641221374045803</c:v>
+                  <c:v>1.2448979591836735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.027027027027027</c:v>
+                  <c:v>1.0991735537190082</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.4039999999999999</c:v>
+                  <c:v>1.3984063745019921</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0600706713780919</c:v>
+                  <c:v>1.075268817204301</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.204946996466431</c:v>
+                  <c:v>1.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.34375</c:v>
+                  <c:v>1.4548872180451127</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0408163265306123</c:v>
+                  <c:v>1.1814671814671815</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2080536912751678</c:v>
+                  <c:v>1.2949640287769784</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.5117845117845117</c:v>
+                  <c:v>1.56993006993007</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.1168384879725086</c:v>
+                  <c:v>1.1992619926199262</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.4548611111111112</c:v>
+                  <c:v>1.465034965034965</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3986013986013985</c:v>
+                  <c:v>1.4492753623188406</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0543478260869565</c:v>
+                  <c:v>1.0505415162454874</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1142857142857143</c:v>
+                  <c:v>1.2697674418604652</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.2299651567944252</c:v>
@@ -1461,10 +1461,10 @@
                   <c:v>1.4275618374558303</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0069930069930071</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0769230769230769</c:v>
+                  <c:v>1.1484375</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1.153225806451613</c:v>
@@ -1475,7 +1475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C42-46B0-B3E0-FDDFA6D6216C}"/>
+              <c16:uniqueId val="{00000001-2248-4243-8D82-2B117012DDD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,7 +1484,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ergebnisse!$K$1</c:f>
+              <c:f>Ergebnisse!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,7 +1518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$2:$H$101</c:f>
+              <c:f>Ergebnisse!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1827,7 +1827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$K$2:$K$101</c:f>
+              <c:f>Ergebnisse!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1841,13 +1841,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.058641975308642</c:v>
+                  <c:v>1.0521472392638036</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.376984126984127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0503597122302157</c:v>
+                  <c:v>1.0068965517241379</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.6008583690987124</c:v>
@@ -1877,7 +1877,7 @@
                   <c:v>1.277056277056277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4218181818181819</c:v>
+                  <c:v>1.4115523465703972</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.6652719665271967</c:v>
@@ -1889,13 +1889,13 @@
                   <c:v>1.0314685314685315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2167300380228137</c:v>
+                  <c:v>1.167883211678832</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.0782918149466192</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0620689655172413</c:v>
+                  <c:v>1.2571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.1314741035856575</c:v>
@@ -1904,10 +1904,10 @@
                   <c:v>1.1730103806228374</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.1238532110091743</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2913385826771653</c:v>
+                  <c:v>1.2964426877470356</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.45</c:v>
@@ -1916,31 +1916,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4370370370370371</c:v>
+                  <c:v>1.5335968379446641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1992031872509961</c:v>
+                  <c:v>1.3619909502262444</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0743494423791822</c:v>
+                  <c:v>1.1201550387596899</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.1341107871720117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1403508771929824</c:v>
+                  <c:v>1.1484098939929328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4180327868852458</c:v>
+                  <c:v>1.4661016949152543</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1004366812227073</c:v>
+                  <c:v>1.1150442477876106</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0532915360501567</c:v>
+                  <c:v>1.3603238866396761</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.0844594594594594</c:v>
@@ -1949,37 +1949,37 @@
                   <c:v>1.0629139072847682</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0532319391634981</c:v>
+                  <c:v>1.0862745098039215</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1802721088435375</c:v>
+                  <c:v>1.3094339622641509</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.2411067193675889</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0291970802919708</c:v>
+                  <c:v>1.0254545454545454</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0940766550522647</c:v>
+                  <c:v>1.2712550607287449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.425</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1301115241635689</c:v>
+                  <c:v>1.0410958904109588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.008695652173913</c:v>
+                  <c:v>1.0265486725663717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.518796992481203</c:v>
+                  <c:v>1.6031746031746033</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.2968036529680365</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2465277777777777</c:v>
+                  <c:v>1.3395522388059702</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0532786885245902</c:v>
@@ -2000,7 +2000,7 @@
                   <c:v>1.4224806201550388</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.273927392739274</c:v>
+                  <c:v>1.2697368421052631</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.0373831775700935</c:v>
@@ -2009,43 +2009,43 @@
                   <c:v>1.1322314049586777</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0533807829181494</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0363636363636364</c:v>
+                  <c:v>1.0877862595419847</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4917355371900827</c:v>
+                  <c:v>1.4979253112033195</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1864406779661016</c:v>
+                  <c:v>1.2544802867383513</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.2430278884462151</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1333333333333333</c:v>
+                  <c:v>1.2191235059760956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0035971223021583</c:v>
+                  <c:v>1.0813953488372092</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1428571428571428</c:v>
+                  <c:v>1.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.106761565836299</c:v>
+                  <c:v>1.1518518518518519</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0830188679245283</c:v>
+                  <c:v>1.134387351778656</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0836120401337792</c:v>
+                  <c:v>1.2509652509652509</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>1.2658730158730158</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.1102941176470589</c:v>
@@ -2057,64 +2057,64 @@
                   <c:v>1.2067510548523206</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3143939393939394</c:v>
+                  <c:v>1.416326530612245</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3011152416356877</c:v>
+                  <c:v>1.3944223107569722</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.367816091954023</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1289198606271778</c:v>
+                  <c:v>1.1911764705882353</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.0479704797047971</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3866171003717471</c:v>
+                  <c:v>1.3814814814814815</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1641221374045803</c:v>
+                  <c:v>1.2448979591836735</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1930501930501931</c:v>
+                  <c:v>1.2768595041322315</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.444</c:v>
+                  <c:v>1.4382470119521913</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1236749116607774</c:v>
+                  <c:v>1.1397849462365592</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.204946996466431</c:v>
+                  <c:v>1.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.34375</c:v>
+                  <c:v>1.4548872180451127</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2482993197278911</c:v>
+                  <c:v>1.416988416988417</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2953020134228188</c:v>
+                  <c:v>1.3884892086330936</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.393939393939394</c:v>
+                  <c:v>1.4475524475524475</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2371134020618557</c:v>
+                  <c:v>1.3284132841328413</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3541666666666667</c:v>
+                  <c:v>1.3636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1293706293706294</c:v>
+                  <c:v>1.1702898550724639</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3115942028985508</c:v>
+                  <c:v>1.3068592057761732</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.2285714285714286</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.254355400696864</c:v>
@@ -2123,10 +2123,10 @@
                   <c:v>1.3144876325088339</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2762237762237763</c:v>
+                  <c:v>1.42578125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0732600732600732</c:v>
+                  <c:v>1.14453125</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1.1612903225806452</c:v>
@@ -2137,7 +2137,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C42-46B0-B3E0-FDDFA6D6216C}"/>
+              <c16:uniqueId val="{00000002-2248-4243-8D82-2B117012DDD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2149,11 +2149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="614020192"/>
-        <c:axId val="614019840"/>
+        <c:axId val="667648928"/>
+        <c:axId val="667649632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="614020192"/>
+        <c:axId val="667648928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2211,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614019840"/>
+        <c:crossAx val="667649632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614019840"/>
+        <c:axId val="667649632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2274,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614020192"/>
+        <c:crossAx val="667648928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,22 +2992,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C31EC2-84FD-511A-DA92-191BB81F21FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF056A3-B9CA-4EA0-A2DF-ADDDE5855D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,15 +3345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3372,20 +3372,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3404,23 +3404,23 @@
       <c r="F2">
         <v>261</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>D2/C2</f>
         <v>1.3692946058091287</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>E2/C2</f>
         <v>1.3651452282157677</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>F2/C2</f>
         <v>1.0829875518672198</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3439,23 +3439,23 @@
       <c r="F3">
         <v>280</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">D3/C3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">D3/C3</f>
         <v>1.2716535433070866</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">E3/C3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">E3/C3</f>
         <v>1.2716535433070866</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">F3/C3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="2">F3/C3</f>
         <v>1.1023622047244095</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D4">
         <v>307</v>
@@ -3472,25 +3472,25 @@
         <v>307</v>
       </c>
       <c r="F4">
-        <v>305</v>
-      </c>
-      <c r="H4">
+        <v>307</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.0065573770491802</v>
-      </c>
-      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
-        <v>1.0065573770491802</v>
-      </c>
-      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D5">
         <v>347</v>
@@ -3509,23 +3509,23 @@
       <c r="F5">
         <v>343</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>1.0709876543209877</v>
-      </c>
-      <c r="J5">
+        <v>1.0644171779141105</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>1.0709876543209877</v>
-      </c>
-      <c r="K5">
+        <v>1.0644171779141105</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>1.058641975308642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0521472392638036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3544,23 +3544,23 @@
       <c r="F6">
         <v>347</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1.5317460317460319</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>1.1587301587301588</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>1.376984126984127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D7">
         <v>309</v>
@@ -3579,23 +3579,23 @@
       <c r="F7">
         <v>292</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>1.1115107913669064</v>
-      </c>
-      <c r="J7">
+        <v>1.0655172413793104</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>1.1115107913669064</v>
-      </c>
-      <c r="K7">
+        <v>1.0655172413793104</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>1.0503597122302157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0068965517241379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3614,23 +3614,23 @@
       <c r="F8">
         <v>373</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>1.6008583690987124</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>1.6008583690987124</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3649,23 +3649,23 @@
       <c r="F9">
         <v>320</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3684,23 +3684,23 @@
       <c r="F10">
         <v>292</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>1.1726907630522088</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>1.1726907630522088</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3719,23 +3719,23 @@
       <c r="F11">
         <v>313</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>1.4251968503937007</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>1.2322834645669292</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3754,23 +3754,23 @@
       <c r="F12">
         <v>375</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>1.4809160305343512</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>1.4198473282442747</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>1.4312977099236641</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3789,23 +3789,23 @@
       <c r="F13">
         <v>381</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>1.7720930232558139</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3824,23 +3824,23 @@
       <c r="F14">
         <v>332</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>1.2509225092250922</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>1.003690036900369</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>1.2250922509225093</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3859,23 +3859,23 @@
       <c r="F15">
         <v>272</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>1.2772727272727273</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>1.2318181818181819</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>1.2363636363636363</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3894,23 +3894,23 @@
       <c r="F16">
         <v>295</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>1.5021645021645023</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>1.5021645021645023</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>1.277056277056277</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D17">
         <v>403</v>
@@ -3929,23 +3929,23 @@
       <c r="F17">
         <v>391</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>1.4654545454545456</v>
-      </c>
-      <c r="J17">
+        <v>1.4548736462093863</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
-        <v>1.0181818181818181</v>
-      </c>
-      <c r="K17">
+        <v>1.0108303249097472</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
-        <v>1.4218181818181819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4115523465703972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3964,23 +3964,23 @@
       <c r="F18">
         <v>398</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>1.6652719665271967</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3999,23 +3999,23 @@
       <c r="F19">
         <v>206</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>1.3552631578947369</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4034,23 +4034,23 @@
       <c r="F20">
         <v>295</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>1.118881118881119</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>1.118881118881119</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>1.0314685314685315</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>376</v>
@@ -4069,23 +4069,23 @@
       <c r="F21">
         <v>320</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
-        <v>1.4296577946768061</v>
-      </c>
-      <c r="J21">
+        <v>1.3722627737226278</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="1"/>
-        <v>1.3460076045627376</v>
-      </c>
-      <c r="K21">
+        <v>1.2919708029197081</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
-        <v>1.2167300380228137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.167883211678832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4104,23 +4104,23 @@
       <c r="F22">
         <v>303</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>6</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>1.3060498220640568</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>1.0782918149466192</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="2"/>
         <v>1.0782918149466192</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="D23">
         <v>348</v>
@@ -4139,23 +4139,23 @@
       <c r="F23">
         <v>308</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="J23">
+        <v>1.4204081632653061</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="1"/>
-        <v>1.0620689655172413</v>
-      </c>
-      <c r="K23">
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
-        <v>1.0620689655172413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2571428571428571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4174,23 +4174,23 @@
       <c r="F24">
         <v>284</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>1.1792828685258965</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>1.1155378486055776</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>1.1314741035856575</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4209,23 +4209,23 @@
       <c r="F25">
         <v>339</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>1.2352941176470589</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>1.1730103806228374</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>1.1730103806228374</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D26">
         <v>245</v>
@@ -4244,1283 +4244,1283 @@
       <c r="F26">
         <v>245</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6</v>
       </c>
-      <c r="I26">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.1238532110091743</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1.1238532110091743</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>1.1238532110091743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>253</v>
+      </c>
+      <c r="D27">
+        <v>262</v>
+      </c>
+      <c r="E27">
+        <v>328</v>
+      </c>
+      <c r="F27">
+        <v>328</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.0355731225296443</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1.2964426877470356</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>1.2964426877470356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>253</v>
+      </c>
+      <c r="E28">
+        <v>348</v>
+      </c>
+      <c r="F28">
+        <v>348</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1.0541666666666667</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>225</v>
+      </c>
+      <c r="D29">
+        <v>225</v>
+      </c>
+      <c r="E29">
+        <v>225</v>
+      </c>
+      <c r="F29">
+        <v>225</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="C30">
+        <v>253</v>
+      </c>
+      <c r="D30">
+        <v>390</v>
+      </c>
+      <c r="E30">
+        <v>270</v>
+      </c>
+      <c r="F30">
+        <v>388</v>
+      </c>
+      <c r="I30">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>254</v>
-      </c>
-      <c r="D27">
-        <v>262</v>
-      </c>
-      <c r="E27">
-        <v>328</v>
-      </c>
-      <c r="F27">
-        <v>328</v>
-      </c>
-      <c r="H27">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.541501976284585</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.0671936758893281</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>1.5335968379446641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>1.0314960629921259</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1.2913385826771653</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>1.2913385826771653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
+      <c r="C31">
+        <v>221</v>
+      </c>
+      <c r="D31">
+        <v>221</v>
+      </c>
+      <c r="E31">
+        <v>301</v>
+      </c>
+      <c r="F31">
+        <v>301</v>
+      </c>
+      <c r="I31">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>240</v>
-      </c>
-      <c r="D28">
-        <v>253</v>
-      </c>
-      <c r="E28">
-        <v>348</v>
-      </c>
-      <c r="F28">
-        <v>348</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>1.0541666666666667</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1.45</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>225</v>
-      </c>
-      <c r="D29">
-        <v>225</v>
-      </c>
-      <c r="E29">
-        <v>225</v>
-      </c>
-      <c r="F29">
-        <v>225</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.3619909502262444</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.3619909502262444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>258</v>
+      </c>
+      <c r="D32">
+        <v>362</v>
+      </c>
+      <c r="E32">
+        <v>289</v>
+      </c>
+      <c r="F32">
+        <v>289</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.4031007751937985</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.1201550387596899</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.1201550387596899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>343</v>
+      </c>
+      <c r="D33">
+        <v>348</v>
+      </c>
+      <c r="E33">
+        <v>369</v>
+      </c>
+      <c r="F33">
+        <v>389</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.0145772594752187</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.0758017492711369</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.1341107871720117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>283</v>
+      </c>
+      <c r="D34">
+        <v>361</v>
+      </c>
+      <c r="E34">
+        <v>325</v>
+      </c>
+      <c r="F34">
+        <v>325</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1.2756183745583038</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1.1484098939929328</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1.1484098939929328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>236</v>
+      </c>
+      <c r="D35">
+        <v>369</v>
+      </c>
+      <c r="E35">
+        <v>345</v>
+      </c>
+      <c r="F35">
+        <v>346</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1.5635593220338984</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>1.4618644067796611</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1.4661016949152543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
+      <c r="D36">
+        <v>367</v>
+      </c>
+      <c r="E36">
+        <v>365</v>
+      </c>
+      <c r="F36">
+        <v>365</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1.468</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>226</v>
+      </c>
+      <c r="D37">
+        <v>264</v>
+      </c>
+      <c r="E37">
+        <v>229</v>
+      </c>
+      <c r="F37">
+        <v>252</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1.168141592920354</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1.0132743362831858</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>1.1150442477876106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>247</v>
+      </c>
+      <c r="D38">
+        <v>335</v>
+      </c>
+      <c r="E38">
+        <v>336</v>
+      </c>
+      <c r="F38">
+        <v>336</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1.3562753036437247</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1.3603238866396761</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>1.3603238866396761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>296</v>
+      </c>
+      <c r="D39">
+        <v>322</v>
+      </c>
+      <c r="E39">
+        <v>325</v>
+      </c>
+      <c r="F39">
+        <v>321</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1.0878378378378379</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>1.097972972972973</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>1.0844594594594594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>302</v>
+      </c>
+      <c r="D40">
+        <v>375</v>
+      </c>
+      <c r="E40">
+        <v>321</v>
+      </c>
+      <c r="F40">
+        <v>321</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1.2417218543046358</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>1.0629139072847682</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>1.0629139072847682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>255</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>277</v>
+      </c>
+      <c r="F41">
+        <v>277</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1.0862745098039215</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>1.0862745098039215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>265</v>
+      </c>
+      <c r="D42">
+        <v>381</v>
+      </c>
+      <c r="E42">
+        <v>347</v>
+      </c>
+      <c r="F42">
+        <v>347</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>1.4377358490566037</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>1.3094339622641509</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>1.3094339622641509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>253</v>
+      </c>
+      <c r="D43">
+        <v>354</v>
+      </c>
+      <c r="E43">
+        <v>338</v>
+      </c>
+      <c r="F43">
+        <v>314</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1.3992094861660078</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1.3359683794466404</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>1.2411067193675889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>275</v>
+      </c>
+      <c r="D44">
+        <v>356</v>
+      </c>
+      <c r="E44">
+        <v>282</v>
+      </c>
+      <c r="F44">
+        <v>282</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1.2945454545454544</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>1.0254545454545454</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>1.0254545454545454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>247</v>
+      </c>
+      <c r="D45">
+        <v>314</v>
+      </c>
+      <c r="E45">
+        <v>314</v>
+      </c>
+      <c r="F45">
+        <v>314</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1.2712550607287449</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>1.2712550607287449</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>1.2712550607287449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>285</v>
+      </c>
+      <c r="D46">
+        <v>335</v>
+      </c>
+      <c r="E46">
+        <v>399</v>
+      </c>
+      <c r="F46">
+        <v>399</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1.1754385964912282</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>292</v>
+      </c>
+      <c r="D47">
+        <v>313</v>
+      </c>
+      <c r="E47">
+        <v>304</v>
+      </c>
+      <c r="F47">
+        <v>304</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.071917808219178</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>1.0410958904109588</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>1.0410958904109588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>226</v>
+      </c>
+      <c r="D48">
+        <v>226</v>
+      </c>
+      <c r="E48">
+        <v>261</v>
+      </c>
+      <c r="F48">
+        <v>232</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>1.154867256637168</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>1.0265486725663717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>252</v>
+      </c>
+      <c r="D49">
+        <v>439</v>
+      </c>
+      <c r="E49">
+        <v>403</v>
+      </c>
+      <c r="F49">
+        <v>404</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1.7420634920634921</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>1.5992063492063493</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>1.6031746031746033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>219</v>
+      </c>
+      <c r="D50">
+        <v>257</v>
+      </c>
+      <c r="E50">
+        <v>279</v>
+      </c>
+      <c r="F50">
+        <v>284</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1.1735159817351599</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>1.273972602739726</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>1.2968036529680365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>268</v>
+      </c>
+      <c r="D51">
+        <v>355</v>
+      </c>
+      <c r="E51">
+        <v>359</v>
+      </c>
+      <c r="F51">
+        <v>359</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1.3246268656716418</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>1.3395522388059702</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>1.3395522388059702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>244</v>
+      </c>
+      <c r="D52">
+        <v>244</v>
+      </c>
+      <c r="E52">
+        <v>257</v>
+      </c>
+      <c r="F52">
+        <v>257</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>1.0532786885245902</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>1.0532786885245902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>298</v>
+      </c>
+      <c r="D53">
+        <v>337</v>
+      </c>
+      <c r="E53">
+        <v>298</v>
+      </c>
+      <c r="F53">
+        <v>298</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1.1308724832214765</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>270</v>
-      </c>
-      <c r="D30">
-        <v>390</v>
-      </c>
-      <c r="E30">
-        <v>270</v>
-      </c>
-      <c r="F30">
-        <v>388</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>268</v>
+      </c>
+      <c r="D54">
+        <v>348</v>
+      </c>
+      <c r="E54">
+        <v>297</v>
+      </c>
+      <c r="F54">
+        <v>287</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="0"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="J30">
+        <v>1.2985074626865671</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>1.1082089552238805</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>1.0708955223880596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>321</v>
+      </c>
+      <c r="E55">
+        <v>303</v>
+      </c>
+      <c r="F55">
+        <v>303</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>1.4078947368421053</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>1.3289473684210527</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>1.3289473684210527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>291</v>
+      </c>
+      <c r="D56">
+        <v>427</v>
+      </c>
+      <c r="E56">
+        <v>342</v>
+      </c>
+      <c r="F56">
+        <v>365</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1.4673539518900343</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>1.1752577319587629</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>1.2542955326460481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>258</v>
+      </c>
+      <c r="D57">
+        <v>307</v>
+      </c>
+      <c r="E57">
+        <v>367</v>
+      </c>
+      <c r="F57">
+        <v>367</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1.1899224806201549</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>1.4224806201550388</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>1.4224806201550388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>304</v>
+      </c>
+      <c r="D58">
+        <v>306</v>
+      </c>
+      <c r="E58">
+        <v>386</v>
+      </c>
+      <c r="F58">
+        <v>386</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1.006578947368421</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>1.2697368421052631</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>1.2697368421052631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>321</v>
+      </c>
+      <c r="D59">
+        <v>346</v>
+      </c>
+      <c r="E59">
+        <v>333</v>
+      </c>
+      <c r="F59">
+        <v>333</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>1.0778816199376946</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>1.0373831775700935</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>1.0373831775700935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>242</v>
+      </c>
+      <c r="D60">
+        <v>278</v>
+      </c>
+      <c r="E60">
+        <v>274</v>
+      </c>
+      <c r="F60">
+        <v>274</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>1.1487603305785123</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>1.1322314049586777</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>1.1322314049586777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>296</v>
+      </c>
+      <c r="D61">
+        <v>362</v>
+      </c>
+      <c r="E61">
+        <v>296</v>
+      </c>
+      <c r="F61">
+        <v>296</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>1.222972972972973</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="L61">
         <f t="shared" si="2"/>
-        <v>1.4370370370370371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>251</v>
-      </c>
-      <c r="D31">
-        <v>221</v>
-      </c>
-      <c r="E31">
-        <v>301</v>
-      </c>
-      <c r="F31">
-        <v>301</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>303</v>
+      </c>
+      <c r="D62">
+        <v>305</v>
+      </c>
+      <c r="E62">
+        <v>303</v>
+      </c>
+      <c r="F62">
+        <v>303</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="0"/>
-        <v>0.88047808764940239</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>1.1992031872509961</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>1.1992031872509961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>269</v>
-      </c>
-      <c r="D32">
-        <v>362</v>
-      </c>
-      <c r="E32">
-        <v>289</v>
-      </c>
-      <c r="F32">
-        <v>289</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1.3457249070631969</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>1.0743494423791822</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>1.0743494423791822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>343</v>
-      </c>
-      <c r="D33">
-        <v>348</v>
-      </c>
-      <c r="E33">
-        <v>369</v>
-      </c>
-      <c r="F33">
-        <v>389</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1.0145772594752187</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>1.0758017492711369</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>1.1341107871720117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>285</v>
-      </c>
-      <c r="D34">
-        <v>361</v>
-      </c>
-      <c r="E34">
-        <v>325</v>
-      </c>
-      <c r="F34">
-        <v>325</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>1.1403508771929824</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>1.1403508771929824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>14</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>244</v>
-      </c>
-      <c r="D35">
-        <v>369</v>
-      </c>
-      <c r="E35">
-        <v>345</v>
-      </c>
-      <c r="F35">
-        <v>346</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1.5122950819672132</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1.4139344262295082</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>1.4180327868852458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>250</v>
-      </c>
-      <c r="D36">
-        <v>367</v>
-      </c>
-      <c r="E36">
-        <v>365</v>
-      </c>
-      <c r="F36">
-        <v>365</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1.468</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1.46</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>229</v>
-      </c>
-      <c r="D37">
-        <v>264</v>
-      </c>
-      <c r="E37">
-        <v>229</v>
-      </c>
-      <c r="F37">
-        <v>252</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>1.1528384279475983</v>
-      </c>
-      <c r="J37">
+        <v>1.0066006600660067</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>1.1004366812227073</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>319</v>
-      </c>
-      <c r="D38">
-        <v>335</v>
-      </c>
-      <c r="E38">
-        <v>336</v>
-      </c>
-      <c r="F38">
-        <v>336</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>1.0501567398119123</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>1.0532915360501567</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>1.0532915360501567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>296</v>
-      </c>
-      <c r="D39">
-        <v>322</v>
-      </c>
-      <c r="E39">
-        <v>325</v>
-      </c>
-      <c r="F39">
-        <v>321</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>1.0878378378378379</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>1.097972972972973</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>1.0844594594594594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>302</v>
-      </c>
-      <c r="D40">
-        <v>375</v>
-      </c>
-      <c r="E40">
-        <v>321</v>
-      </c>
-      <c r="F40">
-        <v>321</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>1.2417218543046358</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>1.0629139072847682</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>1.0629139072847682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>263</v>
-      </c>
-      <c r="D41">
-        <v>255</v>
-      </c>
-      <c r="E41">
-        <v>277</v>
-      </c>
-      <c r="F41">
-        <v>277</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0.96958174904942962</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>1.0532319391634981</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>1.0532319391634981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>294</v>
-      </c>
-      <c r="D42">
-        <v>381</v>
-      </c>
-      <c r="E42">
-        <v>347</v>
-      </c>
-      <c r="F42">
-        <v>347</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>1.2959183673469388</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
-        <v>1.1802721088435375</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>1.1802721088435375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>253</v>
-      </c>
-      <c r="D43">
-        <v>354</v>
-      </c>
-      <c r="E43">
-        <v>338</v>
-      </c>
-      <c r="F43">
-        <v>314</v>
-      </c>
-      <c r="H43">
-        <v>7</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>1.3992094861660078</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
-        <v>1.3359683794466404</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>1.2411067193675889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>274</v>
-      </c>
-      <c r="D44">
-        <v>356</v>
-      </c>
-      <c r="E44">
-        <v>282</v>
-      </c>
-      <c r="F44">
-        <v>282</v>
-      </c>
-      <c r="H44">
-        <v>7</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>1.2992700729927007</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>1.0291970802919708</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>1.0291970802919708</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>287</v>
-      </c>
-      <c r="D45">
-        <v>314</v>
-      </c>
-      <c r="E45">
-        <v>314</v>
-      </c>
-      <c r="F45">
-        <v>314</v>
-      </c>
-      <c r="H45">
-        <v>7</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>1.0940766550522647</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>1.0940766550522647</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>1.0940766550522647</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>280</v>
-      </c>
-      <c r="D46">
-        <v>335</v>
-      </c>
-      <c r="E46">
-        <v>399</v>
-      </c>
-      <c r="F46">
-        <v>399</v>
-      </c>
-      <c r="H46">
-        <v>7</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>1.1964285714285714</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>1.425</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>1.425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>269</v>
-      </c>
-      <c r="D47">
-        <v>313</v>
-      </c>
-      <c r="E47">
-        <v>304</v>
-      </c>
-      <c r="F47">
-        <v>304</v>
-      </c>
-      <c r="H47">
-        <v>7</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>1.1635687732342008</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
-        <v>1.1301115241635689</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>1.1301115241635689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>230</v>
-      </c>
-      <c r="D48">
-        <v>226</v>
-      </c>
-      <c r="E48">
-        <v>261</v>
-      </c>
-      <c r="F48">
-        <v>232</v>
-      </c>
-      <c r="H48">
-        <v>7</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>0.9826086956521739</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>1.1347826086956523</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>1.008695652173913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>266</v>
-      </c>
-      <c r="D49">
-        <v>439</v>
-      </c>
-      <c r="E49">
-        <v>403</v>
-      </c>
-      <c r="F49">
-        <v>404</v>
-      </c>
-      <c r="H49">
-        <v>7</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>1.6503759398496241</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>1.5150375939849625</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>1.518796992481203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>219</v>
-      </c>
-      <c r="D50">
-        <v>257</v>
-      </c>
-      <c r="E50">
-        <v>279</v>
-      </c>
-      <c r="F50">
-        <v>284</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>1.1735159817351599</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>1.273972602739726</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>1.2968036529680365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>288</v>
-      </c>
-      <c r="D51">
-        <v>355</v>
-      </c>
-      <c r="E51">
-        <v>359</v>
-      </c>
-      <c r="F51">
-        <v>359</v>
-      </c>
-      <c r="H51">
-        <v>7</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>1.2326388888888888</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="1"/>
-        <v>1.2465277777777777</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>1.2465277777777777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>244</v>
-      </c>
-      <c r="D52">
-        <v>244</v>
-      </c>
-      <c r="E52">
-        <v>257</v>
-      </c>
-      <c r="F52">
-        <v>257</v>
-      </c>
-      <c r="H52">
-        <v>7</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
-        <v>1.0532786885245902</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
-        <v>1.0532786885245902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>298</v>
-      </c>
-      <c r="D53">
-        <v>337</v>
-      </c>
-      <c r="E53">
-        <v>298</v>
-      </c>
-      <c r="F53">
-        <v>298</v>
-      </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>1.1308724832214765</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K53">
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>13</v>
-      </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-      <c r="C54">
-        <v>268</v>
-      </c>
-      <c r="D54">
-        <v>348</v>
-      </c>
-      <c r="E54">
-        <v>297</v>
-      </c>
-      <c r="F54">
-        <v>287</v>
-      </c>
-      <c r="H54">
-        <v>7</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>1.2985074626865671</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>1.1082089552238805</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>1.0708955223880596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>228</v>
-      </c>
-      <c r="D55">
-        <v>321</v>
-      </c>
-      <c r="E55">
-        <v>303</v>
-      </c>
-      <c r="F55">
-        <v>303</v>
-      </c>
-      <c r="H55">
-        <v>7</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>1.4078947368421053</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>1.3289473684210527</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="2"/>
-        <v>1.3289473684210527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>291</v>
-      </c>
-      <c r="D56">
-        <v>427</v>
-      </c>
-      <c r="E56">
-        <v>342</v>
-      </c>
-      <c r="F56">
-        <v>365</v>
-      </c>
-      <c r="H56">
-        <v>7</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>1.4673539518900343</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
-        <v>1.1752577319587629</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
-        <v>1.2542955326460481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>258</v>
-      </c>
-      <c r="D57">
-        <v>307</v>
-      </c>
-      <c r="E57">
-        <v>367</v>
-      </c>
-      <c r="F57">
-        <v>367</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>1.1899224806201549</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>1.4224806201550388</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="2"/>
-        <v>1.4224806201550388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>17</v>
-      </c>
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>303</v>
-      </c>
-      <c r="D58">
-        <v>306</v>
-      </c>
-      <c r="E58">
-        <v>386</v>
-      </c>
-      <c r="F58">
-        <v>386</v>
-      </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>1.0099009900990099</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>1.273927392739274</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="2"/>
-        <v>1.273927392739274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>18</v>
-      </c>
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>321</v>
-      </c>
-      <c r="D59">
-        <v>346</v>
-      </c>
-      <c r="E59">
-        <v>333</v>
-      </c>
-      <c r="F59">
-        <v>333</v>
-      </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>1.0778816199376946</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>1.0373831775700935</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="2"/>
-        <v>1.0373831775700935</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>242</v>
-      </c>
-      <c r="D60">
-        <v>278</v>
-      </c>
-      <c r="E60">
-        <v>274</v>
-      </c>
-      <c r="F60">
-        <v>274</v>
-      </c>
-      <c r="H60">
-        <v>7</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>1.1487603305785123</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>1.1322314049586777</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="2"/>
-        <v>1.1322314049586777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>281</v>
-      </c>
-      <c r="D61">
-        <v>362</v>
-      </c>
-      <c r="E61">
-        <v>296</v>
-      </c>
-      <c r="F61">
-        <v>296</v>
-      </c>
-      <c r="H61">
-        <v>7</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>1.2882562277580072</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>1.0533807829181494</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="2"/>
-        <v>1.0533807829181494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>303</v>
-      </c>
-      <c r="D62">
-        <v>305</v>
-      </c>
-      <c r="E62">
-        <v>303</v>
-      </c>
-      <c r="F62">
-        <v>303</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>1.0066006600660067</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D63">
         <v>350</v>
@@ -5539,23 +5539,23 @@
       <c r="F63">
         <v>285</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>8</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="0"/>
-        <v>1.2727272727272727</v>
-      </c>
-      <c r="J63">
+        <v>1.3358778625954197</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="1"/>
-        <v>1.04</v>
-      </c>
-      <c r="K63">
+        <v>1.0916030534351144</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
-        <v>1.0363636363636364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0877862595419847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64">
         <v>379</v>
@@ -5574,23 +5574,23 @@
       <c r="F64">
         <v>361</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>8</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="0"/>
-        <v>1.5661157024793388</v>
-      </c>
-      <c r="J64">
+        <v>1.5726141078838174</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="1"/>
-        <v>1.5495867768595042</v>
-      </c>
-      <c r="K64">
+        <v>1.5560165975103735</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="2"/>
-        <v>1.4917355371900827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4979253112033195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D65">
         <v>312</v>
@@ -5609,23 +5609,23 @@
       <c r="F65">
         <v>350</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>8</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="0"/>
-        <v>1.0576271186440678</v>
-      </c>
-      <c r="J65">
+        <v>1.118279569892473</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="1"/>
-        <v>1.1864406779661016</v>
-      </c>
-      <c r="K65">
+        <v>1.2544802867383513</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
-        <v>1.1864406779661016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2544802867383513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5644,23 +5644,23 @@
       <c r="F66">
         <v>312</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>8</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <f t="shared" si="0"/>
         <v>1.5776892430278884</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="1"/>
         <v>1.2629482071713147</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <f t="shared" si="2"/>
         <v>1.2430278884462151</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D67">
         <v>294</v>
@@ -5679,23 +5679,23 @@
       <c r="F67">
         <v>306</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>8</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I101" si="3">D67/C67</f>
-        <v>1.0888888888888888</v>
-      </c>
       <c r="J67">
-        <f t="shared" ref="J67:J101" si="4">E67/C67</f>
-        <v>1.1333333333333333</v>
+        <f t="shared" ref="J67:J101" si="3">D67/C67</f>
+        <v>1.1713147410358566</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K101" si="5">F67/C67</f>
-        <v>1.1333333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K67:K101" si="4">E67/C67</f>
+        <v>1.2191235059760956</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L101" si="5">F67/C67</f>
+        <v>1.2191235059760956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D68">
         <v>320</v>
@@ -5714,23 +5714,23 @@
       <c r="F68">
         <v>279</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>8</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="3"/>
-        <v>1.1510791366906474</v>
-      </c>
-      <c r="J68">
+        <v>1.2403100775193798</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="4"/>
-        <v>1.0035971223021583</v>
-      </c>
-      <c r="K68">
+        <v>1.0813953488372092</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="5"/>
-        <v>1.0035971223021583</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0813953488372092</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D69">
         <v>341</v>
@@ -5749,23 +5749,23 @@
       <c r="F69">
         <v>288</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>8</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="3"/>
-        <v>1.3531746031746033</v>
-      </c>
-      <c r="J69">
+        <v>1.4572649572649572</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="4"/>
-        <v>1.5436507936507937</v>
-      </c>
-      <c r="K69">
+        <v>1.6623931623931625</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="5"/>
-        <v>1.1428571428571428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D70">
         <v>311</v>
@@ -5784,23 +5784,23 @@
       <c r="F70">
         <v>311</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>8</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="3"/>
-        <v>1.106761565836299</v>
-      </c>
-      <c r="J70">
+        <v>1.1518518518518519</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="4"/>
-        <v>1.106761565836299</v>
-      </c>
-      <c r="K70">
+        <v>1.1518518518518519</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="5"/>
-        <v>1.106761565836299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.1518518518518519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D71">
         <v>322</v>
@@ -5819,23 +5819,23 @@
       <c r="F71">
         <v>287</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>8</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <f t="shared" si="3"/>
-        <v>1.2150943396226415</v>
-      </c>
-      <c r="J71">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="4"/>
-        <v>1.1849056603773584</v>
-      </c>
-      <c r="K71">
+        <v>1.2411067193675889</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="5"/>
-        <v>1.0830188679245283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.134387351778656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>11</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="D72">
         <v>364</v>
@@ -5854,23 +5854,23 @@
       <c r="F72">
         <v>324</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>8</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="3"/>
-        <v>1.2173913043478262</v>
-      </c>
-      <c r="J72">
+        <v>1.4054054054054055</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="4"/>
-        <v>1.0836120401337792</v>
-      </c>
-      <c r="K72">
+        <v>1.2509652509652509</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="5"/>
-        <v>1.0836120401337792</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2509652509652509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>12</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D73">
         <v>362</v>
@@ -5889,513 +5889,513 @@
       <c r="F73">
         <v>319</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>8</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <f t="shared" si="3"/>
-        <v>1.3869731800766283</v>
-      </c>
-      <c r="J73">
+        <v>1.4365079365079365</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>1.2658730158730158</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="5"/>
+        <v>1.2658730158730158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>272</v>
+      </c>
+      <c r="D74">
+        <v>335</v>
+      </c>
+      <c r="E74">
+        <v>302</v>
+      </c>
+      <c r="F74">
+        <v>302</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>1.2316176470588236</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>1.1102941176470589</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="5"/>
+        <v>1.1102941176470589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>263</v>
+      </c>
+      <c r="D75">
+        <v>346</v>
+      </c>
+      <c r="E75">
+        <v>283</v>
+      </c>
+      <c r="F75">
+        <v>274</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>1.3155893536121672</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>1.0760456273764258</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="5"/>
+        <v>1.0418250950570342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>237</v>
+      </c>
+      <c r="D76">
+        <v>314</v>
+      </c>
+      <c r="E76">
+        <v>279</v>
+      </c>
+      <c r="F76">
+        <v>286</v>
+      </c>
+      <c r="I76">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>1.3248945147679325</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>1.1772151898734178</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="5"/>
+        <v>1.2067510548523206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>245</v>
+      </c>
+      <c r="D77">
+        <v>249</v>
+      </c>
+      <c r="E77">
+        <v>347</v>
+      </c>
+      <c r="F77">
+        <v>347</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>1.0163265306122449</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>1.416326530612245</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="5"/>
+        <v>1.416326530612245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>251</v>
+      </c>
+      <c r="D78">
+        <v>301</v>
+      </c>
+      <c r="E78">
+        <v>385</v>
+      </c>
+      <c r="F78">
+        <v>350</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>1.1992031872509961</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>1.5338645418326693</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="5"/>
+        <v>1.3944223107569722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>261</v>
+      </c>
+      <c r="D79">
+        <v>282</v>
+      </c>
+      <c r="E79">
+        <v>357</v>
+      </c>
+      <c r="F79">
+        <v>357</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>1.0804597701149425</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>1.367816091954023</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="5"/>
+        <v>1.367816091954023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>272</v>
+      </c>
+      <c r="D80">
+        <v>339</v>
+      </c>
+      <c r="E80">
+        <v>324</v>
+      </c>
+      <c r="F80">
+        <v>324</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>1.2463235294117647</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>1.1911764705882353</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="5"/>
+        <v>1.1911764705882353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>271</v>
+      </c>
+      <c r="D81">
+        <v>297</v>
+      </c>
+      <c r="E81">
+        <v>271</v>
+      </c>
+      <c r="F81">
+        <v>284</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>1.0959409594095941</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="5"/>
+        <v>1.0479704797047971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>270</v>
+      </c>
+      <c r="D82">
+        <v>328</v>
+      </c>
+      <c r="E82">
+        <v>316</v>
+      </c>
+      <c r="F82">
+        <v>373</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>1.2148148148148148</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>1.1703703703703703</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="5"/>
+        <v>1.3814814814814815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>245</v>
+      </c>
+      <c r="D83">
+        <v>305</v>
+      </c>
+      <c r="E83">
+        <v>305</v>
+      </c>
+      <c r="F83">
+        <v>305</v>
+      </c>
+      <c r="I83">
+        <v>9</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>1.2448979591836735</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>1.2448979591836735</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="5"/>
+        <v>1.2448979591836735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>242</v>
+      </c>
+      <c r="D84">
+        <v>272</v>
+      </c>
+      <c r="E84">
+        <v>266</v>
+      </c>
+      <c r="F84">
+        <v>309</v>
+      </c>
+      <c r="I84">
+        <v>9</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>1.1239669421487604</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>1.0991735537190082</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="5"/>
+        <v>1.2768595041322315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>251</v>
+      </c>
+      <c r="D85">
+        <v>355</v>
+      </c>
+      <c r="E85">
+        <v>351</v>
+      </c>
+      <c r="F85">
+        <v>361</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>1.4143426294820718</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>1.3984063745019921</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="5"/>
+        <v>1.4382470119521913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>279</v>
+      </c>
+      <c r="D86">
+        <v>386</v>
+      </c>
+      <c r="E86">
+        <v>300</v>
+      </c>
+      <c r="F86">
+        <v>318</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>1.3835125448028673</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>1.075268817204301</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="5"/>
+        <v>1.1397849462365592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>279</v>
+      </c>
+      <c r="D87">
+        <v>360</v>
+      </c>
+      <c r="E87">
+        <v>341</v>
+      </c>
+      <c r="F87">
+        <v>341</v>
+      </c>
+      <c r="I87">
+        <v>9</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="4"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="K73">
+      <c r="L87">
         <f t="shared" si="5"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>13</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
-      </c>
-      <c r="C74">
-        <v>272</v>
-      </c>
-      <c r="D74">
-        <v>335</v>
-      </c>
-      <c r="E74">
-        <v>302</v>
-      </c>
-      <c r="F74">
-        <v>302</v>
-      </c>
-      <c r="H74">
-        <v>8</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="3"/>
-        <v>1.2316176470588236</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="4"/>
-        <v>1.1102941176470589</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="5"/>
-        <v>1.1102941176470589</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-      <c r="C75">
-        <v>263</v>
-      </c>
-      <c r="D75">
-        <v>346</v>
-      </c>
-      <c r="E75">
-        <v>283</v>
-      </c>
-      <c r="F75">
-        <v>274</v>
-      </c>
-      <c r="H75">
-        <v>8</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="3"/>
-        <v>1.3155893536121672</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="4"/>
-        <v>1.0760456273764258</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="5"/>
-        <v>1.0418250950570342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>237</v>
-      </c>
-      <c r="D76">
-        <v>314</v>
-      </c>
-      <c r="E76">
-        <v>279</v>
-      </c>
-      <c r="F76">
-        <v>286</v>
-      </c>
-      <c r="H76">
-        <v>8</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="3"/>
-        <v>1.3248945147679325</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="4"/>
-        <v>1.1772151898734178</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="5"/>
-        <v>1.2067510548523206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>16</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>264</v>
-      </c>
-      <c r="D77">
-        <v>249</v>
-      </c>
-      <c r="E77">
-        <v>347</v>
-      </c>
-      <c r="F77">
-        <v>347</v>
-      </c>
-      <c r="H77">
-        <v>8</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="3"/>
-        <v>0.94318181818181823</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="4"/>
-        <v>1.3143939393939394</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="5"/>
-        <v>1.3143939393939394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>269</v>
-      </c>
-      <c r="D78">
-        <v>301</v>
-      </c>
-      <c r="E78">
-        <v>385</v>
-      </c>
-      <c r="F78">
-        <v>350</v>
-      </c>
-      <c r="H78">
-        <v>8</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="3"/>
-        <v>1.1189591078066914</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="4"/>
-        <v>1.4312267657992566</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="5"/>
-        <v>1.3011152416356877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>18</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>261</v>
-      </c>
-      <c r="D79">
-        <v>282</v>
-      </c>
-      <c r="E79">
-        <v>357</v>
-      </c>
-      <c r="F79">
-        <v>357</v>
-      </c>
-      <c r="H79">
-        <v>8</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="3"/>
-        <v>1.0804597701149425</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="4"/>
-        <v>1.367816091954023</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="5"/>
-        <v>1.367816091954023</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>19</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>287</v>
-      </c>
-      <c r="D80">
-        <v>339</v>
-      </c>
-      <c r="E80">
-        <v>324</v>
-      </c>
-      <c r="F80">
-        <v>324</v>
-      </c>
-      <c r="H80">
-        <v>8</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="3"/>
-        <v>1.1811846689895471</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="4"/>
-        <v>1.1289198606271778</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="5"/>
-        <v>1.1289198606271778</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>20</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>271</v>
-      </c>
-      <c r="D81">
-        <v>297</v>
-      </c>
-      <c r="E81">
-        <v>271</v>
-      </c>
-      <c r="F81">
-        <v>284</v>
-      </c>
-      <c r="H81">
-        <v>8</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="3"/>
-        <v>1.0959409594095941</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="5"/>
-        <v>1.0479704797047971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>269</v>
-      </c>
-      <c r="D82">
-        <v>328</v>
-      </c>
-      <c r="E82">
-        <v>316</v>
-      </c>
-      <c r="F82">
-        <v>373</v>
-      </c>
-      <c r="H82">
-        <v>9</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="3"/>
-        <v>1.2193308550185873</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="4"/>
-        <v>1.1747211895910781</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="5"/>
-        <v>1.3866171003717471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>262</v>
-      </c>
-      <c r="D83">
-        <v>305</v>
-      </c>
-      <c r="E83">
-        <v>305</v>
-      </c>
-      <c r="F83">
-        <v>305</v>
-      </c>
-      <c r="H83">
-        <v>9</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="3"/>
-        <v>1.1641221374045803</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="4"/>
-        <v>1.1641221374045803</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="5"/>
-        <v>1.1641221374045803</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>259</v>
-      </c>
-      <c r="D84">
-        <v>272</v>
-      </c>
-      <c r="E84">
-        <v>266</v>
-      </c>
-      <c r="F84">
-        <v>309</v>
-      </c>
-      <c r="H84">
-        <v>9</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="3"/>
-        <v>1.0501930501930501</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="4"/>
-        <v>1.027027027027027</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="5"/>
-        <v>1.1930501930501931</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>9</v>
-      </c>
-      <c r="C85">
-        <v>250</v>
-      </c>
-      <c r="D85">
-        <v>355</v>
-      </c>
-      <c r="E85">
-        <v>351</v>
-      </c>
-      <c r="F85">
-        <v>361</v>
-      </c>
-      <c r="H85">
-        <v>9</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="3"/>
-        <v>1.42</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="4"/>
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="5"/>
-        <v>1.444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>5</v>
-      </c>
-      <c r="B86">
-        <v>9</v>
-      </c>
-      <c r="C86">
-        <v>283</v>
-      </c>
-      <c r="D86">
-        <v>386</v>
-      </c>
-      <c r="E86">
-        <v>300</v>
-      </c>
-      <c r="F86">
-        <v>318</v>
-      </c>
-      <c r="H86">
-        <v>9</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="3"/>
-        <v>1.3639575971731448</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="4"/>
-        <v>1.0600706713780919</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="5"/>
-        <v>1.1236749116607774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>6</v>
-      </c>
-      <c r="B87">
-        <v>9</v>
-      </c>
-      <c r="C87">
-        <v>283</v>
-      </c>
-      <c r="D87">
-        <v>360</v>
-      </c>
-      <c r="E87">
-        <v>341</v>
-      </c>
-      <c r="F87">
-        <v>341</v>
-      </c>
-      <c r="H87">
-        <v>9</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="3"/>
-        <v>1.2720848056537102</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="4"/>
-        <v>1.204946996466431</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="5"/>
-        <v>1.204946996466431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>7</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D88">
         <v>364</v>
@@ -6414,23 +6414,23 @@
       <c r="F88">
         <v>387</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>9</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <f t="shared" si="3"/>
-        <v>1.2638888888888888</v>
-      </c>
-      <c r="J88">
+        <v>1.368421052631579</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="4"/>
-        <v>1.34375</v>
-      </c>
-      <c r="K88">
+        <v>1.4548872180451127</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="5"/>
-        <v>1.34375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4548872180451127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="D89">
         <v>306</v>
@@ -6449,23 +6449,23 @@
       <c r="F89">
         <v>367</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>9</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <f t="shared" si="3"/>
-        <v>1.0408163265306123</v>
-      </c>
-      <c r="J89">
+        <v>1.1814671814671815</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="4"/>
-        <v>1.0408163265306123</v>
-      </c>
-      <c r="K89">
+        <v>1.1814671814671815</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="5"/>
-        <v>1.2482993197278911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.416988416988417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D90">
         <v>397</v>
@@ -6484,23 +6484,23 @@
       <c r="F90">
         <v>386</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>9</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <f t="shared" si="3"/>
-        <v>1.3322147651006711</v>
-      </c>
-      <c r="J90">
+        <v>1.4280575539568345</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="4"/>
-        <v>1.2080536912751678</v>
-      </c>
-      <c r="K90">
+        <v>1.2949640287769784</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="5"/>
-        <v>1.2953020134228188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.3884892086330936</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>10</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D91">
         <v>340</v>
@@ -6519,23 +6519,23 @@
       <c r="F91">
         <v>414</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>9</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <f t="shared" si="3"/>
-        <v>1.1447811447811447</v>
-      </c>
-      <c r="J91">
+        <v>1.1888111888111887</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="4"/>
-        <v>1.5117845117845117</v>
-      </c>
-      <c r="K91">
+        <v>1.56993006993007</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="5"/>
-        <v>1.393939393939394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4475524475524475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>11</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D92">
         <v>365</v>
@@ -6554,23 +6554,23 @@
       <c r="F92">
         <v>360</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>9</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <f t="shared" si="3"/>
-        <v>1.2542955326460481</v>
-      </c>
-      <c r="J92">
+        <v>1.3468634686346863</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="4"/>
-        <v>1.1168384879725086</v>
-      </c>
-      <c r="K92">
+        <v>1.1992619926199262</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="5"/>
-        <v>1.2371134020618557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.3284132841328413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>12</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D93">
         <v>378</v>
@@ -6589,23 +6589,23 @@
       <c r="F93">
         <v>390</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>9</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <f t="shared" si="3"/>
-        <v>1.3125</v>
-      </c>
-      <c r="J93">
+        <v>1.3216783216783217</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="4"/>
-        <v>1.4548611111111112</v>
-      </c>
-      <c r="K93">
+        <v>1.465034965034965</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="5"/>
-        <v>1.3541666666666667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>13</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D94">
         <v>323</v>
@@ -6624,23 +6624,23 @@
       <c r="F94">
         <v>323</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>9</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <f t="shared" si="3"/>
-        <v>1.1293706293706294</v>
-      </c>
-      <c r="J94">
+        <v>1.1702898550724639</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="4"/>
-        <v>1.3986013986013985</v>
-      </c>
-      <c r="K94">
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="5"/>
-        <v>1.1293706293706294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.1702898550724639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>14</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95">
         <v>350</v>
@@ -6659,23 +6659,23 @@
       <c r="F95">
         <v>362</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>9</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <f t="shared" si="3"/>
-        <v>1.2681159420289856</v>
-      </c>
-      <c r="J95">
+        <v>1.2635379061371841</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="4"/>
-        <v>1.0543478260869565</v>
-      </c>
-      <c r="K95">
+        <v>1.0505415162454874</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="5"/>
-        <v>1.3115942028985508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.3068592057761732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>15</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D96">
         <v>263</v>
@@ -6694,23 +6694,23 @@
       <c r="F96">
         <v>301</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>9</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <f t="shared" si="3"/>
-        <v>1.073469387755102</v>
-      </c>
-      <c r="J96">
+        <v>1.2232558139534884</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="4"/>
-        <v>1.1142857142857143</v>
-      </c>
-      <c r="K96">
+        <v>1.2697674418604652</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="5"/>
-        <v>1.2285714285714286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>16</v>
       </c>
@@ -6729,23 +6729,23 @@
       <c r="F97">
         <v>360</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>9</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <f t="shared" si="3"/>
         <v>1.2578397212543555</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <f t="shared" si="4"/>
         <v>1.2299651567944252</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <f t="shared" si="5"/>
         <v>1.254355400696864</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>17</v>
       </c>
@@ -6764,23 +6764,23 @@
       <c r="F98">
         <v>372</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>9</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <f t="shared" si="3"/>
         <v>1.4593639575971731</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <f t="shared" si="4"/>
         <v>1.4275618374558303</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <f t="shared" si="5"/>
         <v>1.3144876325088339</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>18</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D99">
         <v>291</v>
@@ -6799,23 +6799,23 @@
       <c r="F99">
         <v>365</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>9</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <f t="shared" si="3"/>
-        <v>1.0174825174825175</v>
-      </c>
-      <c r="J99">
+        <v>1.13671875</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="4"/>
-        <v>1.0069930069930071</v>
-      </c>
-      <c r="K99">
+        <v>1.125</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="5"/>
-        <v>1.2762237762237763</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.42578125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D100">
         <v>284</v>
@@ -6834,23 +6834,23 @@
       <c r="F100">
         <v>293</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>9</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <f t="shared" si="3"/>
-        <v>1.0402930402930404</v>
-      </c>
-      <c r="J100">
+        <v>1.109375</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="4"/>
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="K100">
+        <v>1.1484375</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="5"/>
-        <v>1.0732600732600732</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.14453125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>20</v>
       </c>
@@ -6869,18 +6869,18 @@
       <c r="F101">
         <v>288</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>9</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <f t="shared" si="3"/>
         <v>1.407258064516129</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <f t="shared" si="4"/>
         <v>1.153225806451613</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <f t="shared" si="5"/>
         <v>1.1612903225806452</v>
       </c>

--- a/Ergebnisse-on-edge.xlsx
+++ b/Ergebnisse-on-edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF644C6-2B6E-4765-A402-E1FE86077662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03514F1D-6D6A-4B9F-A936-EC40D454EB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Experiment</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>threads</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions</c:v>
+                  <c:v>best_next_aktive_robot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -813,7 +816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2248-4243-8D82-2B117012DDD6}"/>
+              <c16:uniqueId val="{00000000-7CA7-429D-9934-E80A2D0B35B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -826,7 +829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>best_next_aktive_robot</c:v>
+                  <c:v>on_roboter_permutation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1475,7 +1478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2248-4243-8D82-2B117012DDD6}"/>
+              <c16:uniqueId val="{00000001-7CA7-429D-9934-E80A2D0B35B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2137,7 +2140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2248-4243-8D82-2B117012DDD6}"/>
+              <c16:uniqueId val="{00000002-7CA7-429D-9934-E80A2D0B35B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2149,11 +2152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="667648928"/>
-        <c:axId val="667649632"/>
+        <c:axId val="713858368"/>
+        <c:axId val="713854496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="667648928"/>
+        <c:axId val="713858368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2214,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667649632"/>
+        <c:crossAx val="713854496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="667649632"/>
+        <c:axId val="713854496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2277,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667648928"/>
+        <c:crossAx val="713858368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,22 +2995,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF056A3-B9CA-4EA0-A2DF-ADDDE5855D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DD3EB4-10E5-861C-8D23-0DDDA3F4DE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3351,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3372,14 +3375,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -3404,6 +3410,9 @@
       <c r="F2">
         <v>261</v>
       </c>
+      <c r="G2">
+        <v>261</v>
+      </c>
       <c r="I2">
         <v>5</v>
       </c>
@@ -3439,6 +3448,9 @@
       <c r="F3">
         <v>280</v>
       </c>
+      <c r="G3">
+        <v>280</v>
+      </c>
       <c r="I3">
         <v>5</v>
       </c>
@@ -3474,6 +3486,9 @@
       <c r="F4">
         <v>307</v>
       </c>
+      <c r="G4">
+        <v>307</v>
+      </c>
       <c r="I4">
         <v>5</v>
       </c>
@@ -3509,6 +3524,9 @@
       <c r="F5">
         <v>343</v>
       </c>
+      <c r="G5">
+        <v>343</v>
+      </c>
       <c r="I5">
         <v>5</v>
       </c>
@@ -3544,6 +3562,9 @@
       <c r="F6">
         <v>347</v>
       </c>
+      <c r="G6">
+        <v>347</v>
+      </c>
       <c r="I6">
         <v>5</v>
       </c>
@@ -3579,6 +3600,9 @@
       <c r="F7">
         <v>292</v>
       </c>
+      <c r="G7">
+        <v>292</v>
+      </c>
       <c r="I7">
         <v>5</v>
       </c>
@@ -3614,6 +3638,9 @@
       <c r="F8">
         <v>373</v>
       </c>
+      <c r="G8">
+        <v>384</v>
+      </c>
       <c r="I8">
         <v>5</v>
       </c>
@@ -3649,6 +3676,9 @@
       <c r="F9">
         <v>320</v>
       </c>
+      <c r="G9">
+        <v>320</v>
+      </c>
       <c r="I9">
         <v>5</v>
       </c>
@@ -3684,6 +3714,9 @@
       <c r="F10">
         <v>292</v>
       </c>
+      <c r="G10">
+        <v>424</v>
+      </c>
       <c r="I10">
         <v>5</v>
       </c>
@@ -3719,6 +3752,9 @@
       <c r="F11">
         <v>313</v>
       </c>
+      <c r="G11">
+        <v>362</v>
+      </c>
       <c r="I11">
         <v>5</v>
       </c>
@@ -3754,6 +3790,9 @@
       <c r="F12">
         <v>375</v>
       </c>
+      <c r="G12">
+        <v>372</v>
+      </c>
       <c r="I12">
         <v>5</v>
       </c>
@@ -3789,6 +3828,9 @@
       <c r="F13">
         <v>381</v>
       </c>
+      <c r="G13">
+        <v>215</v>
+      </c>
       <c r="I13">
         <v>5</v>
       </c>
@@ -3824,6 +3866,9 @@
       <c r="F14">
         <v>332</v>
       </c>
+      <c r="G14">
+        <v>272</v>
+      </c>
       <c r="I14">
         <v>5</v>
       </c>
@@ -3859,6 +3904,9 @@
       <c r="F15">
         <v>272</v>
       </c>
+      <c r="G15">
+        <v>272</v>
+      </c>
       <c r="I15">
         <v>5</v>
       </c>
@@ -3894,6 +3942,9 @@
       <c r="F16">
         <v>295</v>
       </c>
+      <c r="G16">
+        <v>347</v>
+      </c>
       <c r="I16">
         <v>5</v>
       </c>
@@ -3929,6 +3980,9 @@
       <c r="F17">
         <v>391</v>
       </c>
+      <c r="G17">
+        <v>280</v>
+      </c>
       <c r="I17">
         <v>5</v>
       </c>
@@ -3964,6 +4018,9 @@
       <c r="F18">
         <v>398</v>
       </c>
+      <c r="G18">
+        <v>239</v>
+      </c>
       <c r="I18">
         <v>5</v>
       </c>
@@ -3999,6 +4056,9 @@
       <c r="F19">
         <v>206</v>
       </c>
+      <c r="G19">
+        <v>206</v>
+      </c>
       <c r="I19">
         <v>5</v>
       </c>
@@ -4034,6 +4094,9 @@
       <c r="F20">
         <v>295</v>
       </c>
+      <c r="G20">
+        <v>320</v>
+      </c>
       <c r="I20">
         <v>5</v>
       </c>
@@ -4069,6 +4132,9 @@
       <c r="F21">
         <v>320</v>
       </c>
+      <c r="G21">
+        <v>320</v>
+      </c>
       <c r="I21">
         <v>5</v>
       </c>
@@ -4104,6 +4170,9 @@
       <c r="F22">
         <v>303</v>
       </c>
+      <c r="G22">
+        <v>305</v>
+      </c>
       <c r="I22">
         <v>6</v>
       </c>
@@ -4139,6 +4208,9 @@
       <c r="F23">
         <v>308</v>
       </c>
+      <c r="G23">
+        <v>308</v>
+      </c>
       <c r="I23">
         <v>6</v>
       </c>
@@ -4174,6 +4246,9 @@
       <c r="F24">
         <v>284</v>
       </c>
+      <c r="G24">
+        <v>284</v>
+      </c>
       <c r="I24">
         <v>6</v>
       </c>
@@ -4209,6 +4284,9 @@
       <c r="F25">
         <v>339</v>
       </c>
+      <c r="G25">
+        <v>339</v>
+      </c>
       <c r="I25">
         <v>6</v>
       </c>
@@ -4244,6 +4322,9 @@
       <c r="F26">
         <v>245</v>
       </c>
+      <c r="G26">
+        <v>255</v>
+      </c>
       <c r="I26">
         <v>6</v>
       </c>
@@ -4279,6 +4360,9 @@
       <c r="F27">
         <v>328</v>
       </c>
+      <c r="G27">
+        <v>328</v>
+      </c>
       <c r="I27">
         <v>6</v>
       </c>
@@ -4314,6 +4398,9 @@
       <c r="F28">
         <v>348</v>
       </c>
+      <c r="G28">
+        <v>244</v>
+      </c>
       <c r="I28">
         <v>6</v>
       </c>
@@ -4349,6 +4436,9 @@
       <c r="F29">
         <v>225</v>
       </c>
+      <c r="G29">
+        <v>282</v>
+      </c>
       <c r="I29">
         <v>6</v>
       </c>
@@ -4384,6 +4474,9 @@
       <c r="F30">
         <v>388</v>
       </c>
+      <c r="G30">
+        <v>388</v>
+      </c>
       <c r="I30">
         <v>6</v>
       </c>
@@ -4419,6 +4512,9 @@
       <c r="F31">
         <v>301</v>
       </c>
+      <c r="G31">
+        <v>301</v>
+      </c>
       <c r="I31">
         <v>6</v>
       </c>
@@ -4454,6 +4550,9 @@
       <c r="F32">
         <v>289</v>
       </c>
+      <c r="G32">
+        <v>306</v>
+      </c>
       <c r="I32">
         <v>6</v>
       </c>
@@ -4489,6 +4588,9 @@
       <c r="F33">
         <v>389</v>
       </c>
+      <c r="G33">
+        <v>369</v>
+      </c>
       <c r="I33">
         <v>6</v>
       </c>
@@ -4524,6 +4626,9 @@
       <c r="F34">
         <v>325</v>
       </c>
+      <c r="G34">
+        <v>300</v>
+      </c>
       <c r="I34">
         <v>6</v>
       </c>
@@ -4559,6 +4664,9 @@
       <c r="F35">
         <v>346</v>
       </c>
+      <c r="G35">
+        <v>346</v>
+      </c>
       <c r="I35">
         <v>6</v>
       </c>
@@ -4594,6 +4702,9 @@
       <c r="F36">
         <v>365</v>
       </c>
+      <c r="G36">
+        <v>365</v>
+      </c>
       <c r="I36">
         <v>6</v>
       </c>
@@ -4629,6 +4740,9 @@
       <c r="F37">
         <v>252</v>
       </c>
+      <c r="G37">
+        <v>252</v>
+      </c>
       <c r="I37">
         <v>6</v>
       </c>
@@ -4664,6 +4778,9 @@
       <c r="F38">
         <v>336</v>
       </c>
+      <c r="G38">
+        <v>336</v>
+      </c>
       <c r="I38">
         <v>6</v>
       </c>
@@ -4699,6 +4816,9 @@
       <c r="F39">
         <v>321</v>
       </c>
+      <c r="G39">
+        <v>325</v>
+      </c>
       <c r="I39">
         <v>6</v>
       </c>
@@ -4734,6 +4854,9 @@
       <c r="F40">
         <v>321</v>
       </c>
+      <c r="G40">
+        <v>356</v>
+      </c>
       <c r="I40">
         <v>6</v>
       </c>
@@ -4769,6 +4892,9 @@
       <c r="F41">
         <v>277</v>
       </c>
+      <c r="G41">
+        <v>265</v>
+      </c>
       <c r="I41">
         <v>6</v>
       </c>
@@ -4804,6 +4930,9 @@
       <c r="F42">
         <v>347</v>
       </c>
+      <c r="G42">
+        <v>347</v>
+      </c>
       <c r="I42">
         <v>7</v>
       </c>
@@ -4839,6 +4968,9 @@
       <c r="F43">
         <v>314</v>
       </c>
+      <c r="G43">
+        <v>314</v>
+      </c>
       <c r="I43">
         <v>7</v>
       </c>
@@ -4874,6 +5006,9 @@
       <c r="F44">
         <v>282</v>
       </c>
+      <c r="G44">
+        <v>282</v>
+      </c>
       <c r="I44">
         <v>7</v>
       </c>
@@ -4909,6 +5044,9 @@
       <c r="F45">
         <v>314</v>
       </c>
+      <c r="G45">
+        <v>314</v>
+      </c>
       <c r="I45">
         <v>7</v>
       </c>
@@ -4944,6 +5082,9 @@
       <c r="F46">
         <v>399</v>
       </c>
+      <c r="G46">
+        <v>399</v>
+      </c>
       <c r="I46">
         <v>7</v>
       </c>
@@ -4979,6 +5120,9 @@
       <c r="F47">
         <v>304</v>
       </c>
+      <c r="G47">
+        <v>304</v>
+      </c>
       <c r="I47">
         <v>7</v>
       </c>
@@ -5014,6 +5158,9 @@
       <c r="F48">
         <v>232</v>
       </c>
+      <c r="G48">
+        <v>261</v>
+      </c>
       <c r="I48">
         <v>7</v>
       </c>
@@ -5049,6 +5196,9 @@
       <c r="F49">
         <v>404</v>
       </c>
+      <c r="G49">
+        <v>404</v>
+      </c>
       <c r="I49">
         <v>7</v>
       </c>
@@ -5084,6 +5234,9 @@
       <c r="F50">
         <v>284</v>
       </c>
+      <c r="G50">
+        <v>279</v>
+      </c>
       <c r="I50">
         <v>7</v>
       </c>
@@ -5119,6 +5272,9 @@
       <c r="F51">
         <v>359</v>
       </c>
+      <c r="G51">
+        <v>330</v>
+      </c>
       <c r="I51">
         <v>7</v>
       </c>
@@ -5154,6 +5310,9 @@
       <c r="F52">
         <v>257</v>
       </c>
+      <c r="G52">
+        <v>376</v>
+      </c>
       <c r="I52">
         <v>7</v>
       </c>
@@ -5189,6 +5348,9 @@
       <c r="F53">
         <v>298</v>
       </c>
+      <c r="G53">
+        <v>298</v>
+      </c>
       <c r="I53">
         <v>7</v>
       </c>
@@ -5224,6 +5386,9 @@
       <c r="F54">
         <v>287</v>
       </c>
+      <c r="G54">
+        <v>331</v>
+      </c>
       <c r="I54">
         <v>7</v>
       </c>
@@ -5259,6 +5424,9 @@
       <c r="F55">
         <v>303</v>
       </c>
+      <c r="G55">
+        <v>320</v>
+      </c>
       <c r="I55">
         <v>7</v>
       </c>
@@ -5294,6 +5462,9 @@
       <c r="F56">
         <v>365</v>
       </c>
+      <c r="G56">
+        <v>365</v>
+      </c>
       <c r="I56">
         <v>7</v>
       </c>
@@ -5329,6 +5500,9 @@
       <c r="F57">
         <v>367</v>
       </c>
+      <c r="G57">
+        <v>367</v>
+      </c>
       <c r="I57">
         <v>7</v>
       </c>
@@ -5364,6 +5538,9 @@
       <c r="F58">
         <v>386</v>
       </c>
+      <c r="G58">
+        <v>386</v>
+      </c>
       <c r="I58">
         <v>7</v>
       </c>
@@ -5399,6 +5576,9 @@
       <c r="F59">
         <v>333</v>
       </c>
+      <c r="G59">
+        <v>333</v>
+      </c>
       <c r="I59">
         <v>7</v>
       </c>
@@ -5434,6 +5614,9 @@
       <c r="F60">
         <v>274</v>
       </c>
+      <c r="G60">
+        <v>274</v>
+      </c>
       <c r="I60">
         <v>7</v>
       </c>
@@ -5469,6 +5652,9 @@
       <c r="F61">
         <v>296</v>
       </c>
+      <c r="G61">
+        <v>296</v>
+      </c>
       <c r="I61">
         <v>7</v>
       </c>
@@ -5504,6 +5690,9 @@
       <c r="F62">
         <v>303</v>
       </c>
+      <c r="G62">
+        <v>305</v>
+      </c>
       <c r="I62">
         <v>8</v>
       </c>
@@ -5539,6 +5728,9 @@
       <c r="F63">
         <v>285</v>
       </c>
+      <c r="G63">
+        <v>285</v>
+      </c>
       <c r="I63">
         <v>8</v>
       </c>
@@ -5574,6 +5766,9 @@
       <c r="F64">
         <v>361</v>
       </c>
+      <c r="G64">
+        <v>361</v>
+      </c>
       <c r="I64">
         <v>8</v>
       </c>
@@ -5609,6 +5804,9 @@
       <c r="F65">
         <v>350</v>
       </c>
+      <c r="G65">
+        <v>364</v>
+      </c>
       <c r="I65">
         <v>8</v>
       </c>
@@ -5644,6 +5842,9 @@
       <c r="F66">
         <v>312</v>
       </c>
+      <c r="G66">
+        <v>376</v>
+      </c>
       <c r="I66">
         <v>8</v>
       </c>
@@ -5679,6 +5880,9 @@
       <c r="F67">
         <v>306</v>
       </c>
+      <c r="G67">
+        <v>396</v>
+      </c>
       <c r="I67">
         <v>8</v>
       </c>
@@ -5714,6 +5918,9 @@
       <c r="F68">
         <v>279</v>
       </c>
+      <c r="G68">
+        <v>315</v>
+      </c>
       <c r="I68">
         <v>8</v>
       </c>
@@ -5749,6 +5956,9 @@
       <c r="F69">
         <v>288</v>
       </c>
+      <c r="G69">
+        <v>389</v>
+      </c>
       <c r="I69">
         <v>8</v>
       </c>
@@ -5784,6 +5994,9 @@
       <c r="F70">
         <v>311</v>
       </c>
+      <c r="G70">
+        <v>282</v>
+      </c>
       <c r="I70">
         <v>8</v>
       </c>
@@ -5819,6 +6032,9 @@
       <c r="F71">
         <v>287</v>
       </c>
+      <c r="G71">
+        <v>287</v>
+      </c>
       <c r="I71">
         <v>8</v>
       </c>
@@ -5854,6 +6070,9 @@
       <c r="F72">
         <v>324</v>
       </c>
+      <c r="G72">
+        <v>315</v>
+      </c>
       <c r="I72">
         <v>8</v>
       </c>
@@ -5889,6 +6108,9 @@
       <c r="F73">
         <v>319</v>
       </c>
+      <c r="G73">
+        <v>319</v>
+      </c>
       <c r="I73">
         <v>8</v>
       </c>
@@ -5924,6 +6146,9 @@
       <c r="F74">
         <v>302</v>
       </c>
+      <c r="G74">
+        <v>310</v>
+      </c>
       <c r="I74">
         <v>8</v>
       </c>
@@ -5959,6 +6184,9 @@
       <c r="F75">
         <v>274</v>
       </c>
+      <c r="G75">
+        <v>283</v>
+      </c>
       <c r="I75">
         <v>8</v>
       </c>
@@ -5994,6 +6222,9 @@
       <c r="F76">
         <v>286</v>
       </c>
+      <c r="G76">
+        <v>298</v>
+      </c>
       <c r="I76">
         <v>8</v>
       </c>
@@ -6029,6 +6260,9 @@
       <c r="F77">
         <v>347</v>
       </c>
+      <c r="G77">
+        <v>406</v>
+      </c>
       <c r="I77">
         <v>8</v>
       </c>
@@ -6064,6 +6298,9 @@
       <c r="F78">
         <v>350</v>
       </c>
+      <c r="G78">
+        <v>350</v>
+      </c>
       <c r="I78">
         <v>8</v>
       </c>
@@ -6099,6 +6336,9 @@
       <c r="F79">
         <v>357</v>
       </c>
+      <c r="G79">
+        <v>358</v>
+      </c>
       <c r="I79">
         <v>8</v>
       </c>
@@ -6134,6 +6374,9 @@
       <c r="F80">
         <v>324</v>
       </c>
+      <c r="G80">
+        <v>324</v>
+      </c>
       <c r="I80">
         <v>8</v>
       </c>
@@ -6169,6 +6412,9 @@
       <c r="F81">
         <v>284</v>
       </c>
+      <c r="G81">
+        <v>271</v>
+      </c>
       <c r="I81">
         <v>8</v>
       </c>
@@ -6204,6 +6450,9 @@
       <c r="F82">
         <v>373</v>
       </c>
+      <c r="G82">
+        <v>373</v>
+      </c>
       <c r="I82">
         <v>9</v>
       </c>
@@ -6239,6 +6488,9 @@
       <c r="F83">
         <v>305</v>
       </c>
+      <c r="G83">
+        <v>305</v>
+      </c>
       <c r="I83">
         <v>9</v>
       </c>
@@ -6274,6 +6526,9 @@
       <c r="F84">
         <v>309</v>
       </c>
+      <c r="G84">
+        <v>332</v>
+      </c>
       <c r="I84">
         <v>9</v>
       </c>
@@ -6309,6 +6564,9 @@
       <c r="F85">
         <v>361</v>
       </c>
+      <c r="G85">
+        <v>361</v>
+      </c>
       <c r="I85">
         <v>9</v>
       </c>
@@ -6344,6 +6602,9 @@
       <c r="F86">
         <v>318</v>
       </c>
+      <c r="G86">
+        <v>387</v>
+      </c>
       <c r="I86">
         <v>9</v>
       </c>
@@ -6379,6 +6640,9 @@
       <c r="F87">
         <v>341</v>
       </c>
+      <c r="G87">
+        <v>416</v>
+      </c>
       <c r="I87">
         <v>9</v>
       </c>
@@ -6414,6 +6678,9 @@
       <c r="F88">
         <v>387</v>
       </c>
+      <c r="G88">
+        <v>387</v>
+      </c>
       <c r="I88">
         <v>9</v>
       </c>
@@ -6449,6 +6716,9 @@
       <c r="F89">
         <v>367</v>
       </c>
+      <c r="G89">
+        <v>367</v>
+      </c>
       <c r="I89">
         <v>9</v>
       </c>
@@ -6484,6 +6754,9 @@
       <c r="F90">
         <v>386</v>
       </c>
+      <c r="G90">
+        <v>386</v>
+      </c>
       <c r="I90">
         <v>9</v>
       </c>
@@ -6519,6 +6792,9 @@
       <c r="F91">
         <v>414</v>
       </c>
+      <c r="G91">
+        <v>414</v>
+      </c>
       <c r="I91">
         <v>9</v>
       </c>
@@ -6554,6 +6830,9 @@
       <c r="F92">
         <v>360</v>
       </c>
+      <c r="G92">
+        <v>360</v>
+      </c>
       <c r="I92">
         <v>9</v>
       </c>
@@ -6589,6 +6868,9 @@
       <c r="F93">
         <v>390</v>
       </c>
+      <c r="G93">
+        <v>389</v>
+      </c>
       <c r="I93">
         <v>9</v>
       </c>
@@ -6624,6 +6906,9 @@
       <c r="F94">
         <v>323</v>
       </c>
+      <c r="G94">
+        <v>323</v>
+      </c>
       <c r="I94">
         <v>9</v>
       </c>
@@ -6659,6 +6944,9 @@
       <c r="F95">
         <v>362</v>
       </c>
+      <c r="G95">
+        <v>378</v>
+      </c>
       <c r="I95">
         <v>9</v>
       </c>
@@ -6694,6 +6982,9 @@
       <c r="F96">
         <v>301</v>
       </c>
+      <c r="G96">
+        <v>264</v>
+      </c>
       <c r="I96">
         <v>9</v>
       </c>
@@ -6729,6 +7020,9 @@
       <c r="F97">
         <v>360</v>
       </c>
+      <c r="G97">
+        <v>342</v>
+      </c>
       <c r="I97">
         <v>9</v>
       </c>
@@ -6764,6 +7058,9 @@
       <c r="F98">
         <v>372</v>
       </c>
+      <c r="G98">
+        <v>404</v>
+      </c>
       <c r="I98">
         <v>9</v>
       </c>
@@ -6799,6 +7096,9 @@
       <c r="F99">
         <v>365</v>
       </c>
+      <c r="G99">
+        <v>365</v>
+      </c>
       <c r="I99">
         <v>9</v>
       </c>
@@ -6834,6 +7134,9 @@
       <c r="F100">
         <v>293</v>
       </c>
+      <c r="G100">
+        <v>294</v>
+      </c>
       <c r="I100">
         <v>9</v>
       </c>
@@ -6867,6 +7170,9 @@
         <v>286</v>
       </c>
       <c r="F101">
+        <v>288</v>
+      </c>
+      <c r="G101">
         <v>288</v>
       </c>
       <c r="I101">
